--- a/src/main/resources/static/ExcelTemplate/hospitalList.xlsx
+++ b/src/main/resources/static/ExcelTemplate/hospitalList.xlsx
@@ -8,11 +8,14 @@
   <sheets>
     <sheet name="All Hospital" r:id="rId3" sheetId="1"/>
   </sheets>
+  <definedNames>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="true">'All Hospital'!$A$1:$F$1</definedName>
+  </definedNames>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="121" uniqueCount="103">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="151" uniqueCount="132">
   <si>
     <t>번호</t>
   </si>
@@ -20,6 +23,9 @@
     <t>병원이름</t>
   </si>
   <si>
+    <t>진료과목</t>
+  </si>
+  <si>
     <t>진료시간</t>
   </si>
   <si>
@@ -32,6 +38,9 @@
     <t>유레카내과의원</t>
   </si>
   <si>
+    <t>내과,산부인과</t>
+  </si>
+  <si>
     <t>09:00-18:00</t>
   </si>
   <si>
@@ -44,6 +53,9 @@
     <t>김민희의원</t>
   </si>
   <si>
+    <t>소아청소년과,피부과</t>
+  </si>
+  <si>
     <t>09:00-18:30</t>
   </si>
   <si>
@@ -56,6 +68,9 @@
     <t>김정오치과의원</t>
   </si>
   <si>
+    <t>피부과,안과</t>
+  </si>
+  <si>
     <t>09:30-18:00</t>
   </si>
   <si>
@@ -68,6 +83,9 @@
     <t>매탄삼성내과의원</t>
   </si>
   <si>
+    <t>소아청소년과,내과</t>
+  </si>
+  <si>
     <t>09:00-19:00</t>
   </si>
   <si>
@@ -80,6 +98,9 @@
     <t>성모정형외과의원</t>
   </si>
   <si>
+    <t>정형외과,외과</t>
+  </si>
+  <si>
     <t>07:30-17:30</t>
   </si>
   <si>
@@ -92,6 +113,9 @@
     <t>수원성심정신건강의학과의원</t>
   </si>
   <si>
+    <t>정신건강의학과,정신건강의학과</t>
+  </si>
+  <si>
     <t>031-678-9012</t>
   </si>
   <si>
@@ -101,6 +125,9 @@
     <t>삼성탑내과</t>
   </si>
   <si>
+    <t>안과,내과</t>
+  </si>
+  <si>
     <t>07:00-18:00</t>
   </si>
   <si>
@@ -113,6 +140,9 @@
     <t>서울나이스마취통증의학과의원</t>
   </si>
   <si>
+    <t>내과,정형외과</t>
+  </si>
+  <si>
     <t>031-213-8585</t>
   </si>
   <si>
@@ -122,6 +152,9 @@
     <t>의료법인한성재단S서울병원</t>
   </si>
   <si>
+    <t>비뇨기과,피부과</t>
+  </si>
+  <si>
     <t>08:30-18:30</t>
   </si>
   <si>
@@ -134,6 +167,9 @@
     <t>맹해성이비인후과의원</t>
   </si>
   <si>
+    <t>이비인후과,피부과</t>
+  </si>
+  <si>
     <t>031-012-3456</t>
   </si>
   <si>
@@ -143,6 +179,9 @@
     <t>서울뿌리치과의원</t>
   </si>
   <si>
+    <t>외과,외과</t>
+  </si>
+  <si>
     <t>031-248-7528</t>
   </si>
   <si>
@@ -152,6 +191,9 @@
     <t>초이스병원</t>
   </si>
   <si>
+    <t>성형외과,내과</t>
+  </si>
+  <si>
     <t>031-216-8275</t>
   </si>
   <si>
@@ -161,6 +203,9 @@
     <t>베스탑 비뇨기과의원 수원</t>
   </si>
   <si>
+    <t>비뇨기과,내과</t>
+  </si>
+  <si>
     <t>09:00-17:30</t>
   </si>
   <si>
@@ -173,6 +218,9 @@
     <t>가톨릭대학교 성빈센트병원</t>
   </si>
   <si>
+    <t>산부인과,정형외과</t>
+  </si>
+  <si>
     <t>1577-8588</t>
   </si>
   <si>
@@ -182,6 +230,9 @@
     <t>김찬병원</t>
   </si>
   <si>
+    <t>피부과,외과</t>
+  </si>
+  <si>
     <t>09:30-17:30</t>
   </si>
   <si>
@@ -194,6 +245,9 @@
     <t>하늘마음한의원 수원점</t>
   </si>
   <si>
+    <t>정신건강의학과,정형외과</t>
+  </si>
+  <si>
     <t>10:00-18:00</t>
   </si>
   <si>
@@ -206,6 +260,9 @@
     <t>백성병원</t>
   </si>
   <si>
+    <t>피부과,내과</t>
+  </si>
+  <si>
     <t>031-238-9121</t>
   </si>
   <si>
@@ -215,6 +272,9 @@
     <t>서울88의원</t>
   </si>
   <si>
+    <t>외과,성형외과</t>
+  </si>
+  <si>
     <t>1833-2088</t>
   </si>
   <si>
@@ -233,6 +293,9 @@
     <t>해성병원</t>
   </si>
   <si>
+    <t>외과,내과</t>
+  </si>
+  <si>
     <t>031-222-7511</t>
   </si>
   <si>
@@ -242,6 +305,9 @@
     <t>한독병원</t>
   </si>
   <si>
+    <t>안과,비뇨기과</t>
+  </si>
+  <si>
     <t>031-232-4511</t>
   </si>
   <si>
@@ -251,6 +317,9 @@
     <t>투유의원</t>
   </si>
   <si>
+    <t>정신건강의학과,외과</t>
+  </si>
+  <si>
     <t>1522-8837</t>
   </si>
   <si>
@@ -260,6 +329,9 @@
     <t>화이트드림치과 수원점</t>
   </si>
   <si>
+    <t>내과,소아청소년과</t>
+  </si>
+  <si>
     <t>031-609-2880</t>
   </si>
   <si>
@@ -269,6 +341,9 @@
     <t>우리병원</t>
   </si>
   <si>
+    <t>성형외과,이비인후과</t>
+  </si>
+  <si>
     <t>031-211-1700</t>
   </si>
   <si>
@@ -278,6 +353,9 @@
     <t>쉬즈메디병원</t>
   </si>
   <si>
+    <t>산부인과,피부과</t>
+  </si>
+  <si>
     <t>031-231-7300</t>
   </si>
   <si>
@@ -287,6 +365,9 @@
     <t>정답병원</t>
   </si>
   <si>
+    <t>정형외과,안과</t>
+  </si>
+  <si>
     <t>031-232-9725</t>
   </si>
   <si>
@@ -296,6 +377,9 @@
     <t>동수원병원</t>
   </si>
   <si>
+    <t>외과,소아청소년과</t>
+  </si>
+  <si>
     <t>09:00-17:00</t>
   </si>
   <si>
@@ -308,6 +392,9 @@
     <t>아주대학교병원</t>
   </si>
   <si>
+    <t>피부과,성형외과</t>
+  </si>
+  <si>
     <t>1688-6114-1</t>
   </si>
   <si>
@@ -315,6 +402,9 @@
   </si>
   <si>
     <t>서울올바른내과의원</t>
+  </si>
+  <si>
+    <t>내과,비뇨기과</t>
   </si>
   <si>
     <t>031-236-0775</t>
@@ -345,7 +435,7 @@
       <patternFill patternType="darkGray"/>
     </fill>
   </fills>
-  <borders count="5">
+  <borders count="1">
     <border>
       <left/>
       <right/>
@@ -353,40 +443,19 @@
       <bottom/>
       <diagonal/>
     </border>
-    <border>
-      <left style="thin"/>
-    </border>
-    <border>
-      <left style="thin"/>
-      <right style="thin"/>
-    </border>
-    <border>
-      <left style="thin"/>
-      <right style="thin"/>
-      <top style="thin"/>
-    </border>
-    <border>
-      <left style="thin"/>
-      <right style="thin"/>
-      <top style="thin"/>
-      <bottom style="thin"/>
-    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="true" applyFont="true" applyAlignment="true">
-      <alignment horizontal="center" wrapText="true"/>
-    </xf>
   </cellXfs>
 </styleSheet>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:E30"/>
+  <dimension ref="A1:F30"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="true"/>
   </sheetViews>
@@ -394,9 +463,10 @@
   <cols>
     <col min="1" max="1" width="7.26953125" customWidth="true" bestFit="true"/>
     <col min="2" max="2" width="24.84375" customWidth="true" bestFit="true"/>
-    <col min="3" max="3" width="15.80859375" customWidth="true" bestFit="true"/>
-    <col min="4" max="4" width="17.53515625" customWidth="true" bestFit="true"/>
-    <col min="5" max="5" width="55.72265625" customWidth="true" bestFit="true"/>
+    <col min="3" max="3" width="15.62109375" customWidth="true" bestFit="true"/>
+    <col min="4" max="4" width="15.80859375" customWidth="true" bestFit="true"/>
+    <col min="5" max="5" width="17.53515625" customWidth="true" bestFit="true"/>
+    <col min="6" max="6" width="55.72265625" customWidth="true" bestFit="true"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -415,22 +485,28 @@
       <c r="E1" t="s" s="0">
         <v>4</v>
       </c>
+      <c r="F1" t="s" s="0">
+        <v>5</v>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="n" s="0">
         <v>1.0</v>
       </c>
       <c r="B2" t="s" s="0">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C2" t="s" s="0">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="D2" t="s" s="0">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="E2" t="s" s="0">
-        <v>8</v>
+        <v>9</v>
+      </c>
+      <c r="F2" t="s" s="0">
+        <v>10</v>
       </c>
     </row>
     <row r="3">
@@ -438,16 +514,19 @@
         <v>2.0</v>
       </c>
       <c r="B3" t="s" s="0">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="C3" t="s" s="0">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="D3" t="s" s="0">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="E3" t="s" s="0">
-        <v>12</v>
+        <v>14</v>
+      </c>
+      <c r="F3" t="s" s="0">
+        <v>15</v>
       </c>
     </row>
     <row r="4">
@@ -455,16 +534,19 @@
         <v>3.0</v>
       </c>
       <c r="B4" t="s" s="0">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="C4" t="s" s="0">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="D4" t="s" s="0">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="E4" t="s" s="0">
-        <v>16</v>
+        <v>19</v>
+      </c>
+      <c r="F4" t="s" s="0">
+        <v>20</v>
       </c>
     </row>
     <row r="5">
@@ -472,16 +554,19 @@
         <v>4.0</v>
       </c>
       <c r="B5" t="s" s="0">
-        <v>17</v>
+        <v>21</v>
       </c>
       <c r="C5" t="s" s="0">
-        <v>18</v>
+        <v>22</v>
       </c>
       <c r="D5" t="s" s="0">
-        <v>19</v>
+        <v>23</v>
       </c>
       <c r="E5" t="s" s="0">
-        <v>20</v>
+        <v>24</v>
+      </c>
+      <c r="F5" t="s" s="0">
+        <v>25</v>
       </c>
     </row>
     <row r="6">
@@ -489,16 +574,19 @@
         <v>5.0</v>
       </c>
       <c r="B6" t="s" s="0">
-        <v>21</v>
+        <v>26</v>
       </c>
       <c r="C6" t="s" s="0">
-        <v>22</v>
+        <v>27</v>
       </c>
       <c r="D6" t="s" s="0">
-        <v>23</v>
+        <v>28</v>
       </c>
       <c r="E6" t="s" s="0">
-        <v>24</v>
+        <v>29</v>
+      </c>
+      <c r="F6" t="s" s="0">
+        <v>30</v>
       </c>
     </row>
     <row r="7">
@@ -506,16 +594,19 @@
         <v>6.0</v>
       </c>
       <c r="B7" t="s" s="0">
-        <v>25</v>
+        <v>31</v>
       </c>
       <c r="C7" t="s" s="0">
-        <v>14</v>
+        <v>32</v>
       </c>
       <c r="D7" t="s" s="0">
-        <v>26</v>
+        <v>18</v>
       </c>
       <c r="E7" t="s" s="0">
-        <v>27</v>
+        <v>33</v>
+      </c>
+      <c r="F7" t="s" s="0">
+        <v>34</v>
       </c>
     </row>
     <row r="8">
@@ -523,16 +614,19 @@
         <v>7.0</v>
       </c>
       <c r="B8" t="s" s="0">
-        <v>28</v>
+        <v>35</v>
       </c>
       <c r="C8" t="s" s="0">
-        <v>29</v>
+        <v>36</v>
       </c>
       <c r="D8" t="s" s="0">
-        <v>30</v>
+        <v>37</v>
       </c>
       <c r="E8" t="s" s="0">
-        <v>31</v>
+        <v>38</v>
+      </c>
+      <c r="F8" t="s" s="0">
+        <v>39</v>
       </c>
     </row>
     <row r="9">
@@ -540,16 +634,19 @@
         <v>8.0</v>
       </c>
       <c r="B9" t="s" s="0">
-        <v>32</v>
+        <v>40</v>
       </c>
       <c r="C9" t="s" s="0">
-        <v>6</v>
+        <v>41</v>
       </c>
       <c r="D9" t="s" s="0">
-        <v>33</v>
+        <v>8</v>
       </c>
       <c r="E9" t="s" s="0">
-        <v>34</v>
+        <v>42</v>
+      </c>
+      <c r="F9" t="s" s="0">
+        <v>43</v>
       </c>
     </row>
     <row r="10">
@@ -557,16 +654,19 @@
         <v>9.0</v>
       </c>
       <c r="B10" t="s" s="0">
-        <v>35</v>
+        <v>44</v>
       </c>
       <c r="C10" t="s" s="0">
-        <v>36</v>
+        <v>45</v>
       </c>
       <c r="D10" t="s" s="0">
-        <v>37</v>
+        <v>46</v>
       </c>
       <c r="E10" t="s" s="0">
-        <v>38</v>
+        <v>47</v>
+      </c>
+      <c r="F10" t="s" s="0">
+        <v>48</v>
       </c>
     </row>
     <row r="11">
@@ -574,16 +674,19 @@
         <v>10.0</v>
       </c>
       <c r="B11" t="s" s="0">
-        <v>39</v>
+        <v>49</v>
       </c>
       <c r="C11" t="s" s="0">
-        <v>6</v>
+        <v>50</v>
       </c>
       <c r="D11" t="s" s="0">
-        <v>40</v>
+        <v>8</v>
       </c>
       <c r="E11" t="s" s="0">
-        <v>41</v>
+        <v>51</v>
+      </c>
+      <c r="F11" t="s" s="0">
+        <v>52</v>
       </c>
     </row>
     <row r="12">
@@ -591,16 +694,19 @@
         <v>11.0</v>
       </c>
       <c r="B12" t="s" s="0">
-        <v>42</v>
+        <v>53</v>
       </c>
       <c r="C12" t="s" s="0">
-        <v>6</v>
+        <v>54</v>
       </c>
       <c r="D12" t="s" s="0">
-        <v>43</v>
+        <v>8</v>
       </c>
       <c r="E12" t="s" s="0">
-        <v>44</v>
+        <v>55</v>
+      </c>
+      <c r="F12" t="s" s="0">
+        <v>56</v>
       </c>
     </row>
     <row r="13">
@@ -608,16 +714,19 @@
         <v>12.0</v>
       </c>
       <c r="B13" t="s" s="0">
-        <v>45</v>
+        <v>57</v>
       </c>
       <c r="C13" t="s" s="0">
-        <v>6</v>
+        <v>58</v>
       </c>
       <c r="D13" t="s" s="0">
-        <v>46</v>
+        <v>8</v>
       </c>
       <c r="E13" t="s" s="0">
-        <v>47</v>
+        <v>59</v>
+      </c>
+      <c r="F13" t="s" s="0">
+        <v>60</v>
       </c>
     </row>
     <row r="14">
@@ -625,16 +734,19 @@
         <v>13.0</v>
       </c>
       <c r="B14" t="s" s="0">
-        <v>48</v>
+        <v>61</v>
       </c>
       <c r="C14" t="s" s="0">
-        <v>49</v>
+        <v>62</v>
       </c>
       <c r="D14" t="s" s="0">
-        <v>50</v>
+        <v>63</v>
       </c>
       <c r="E14" t="s" s="0">
-        <v>51</v>
+        <v>64</v>
+      </c>
+      <c r="F14" t="s" s="0">
+        <v>65</v>
       </c>
     </row>
     <row r="15">
@@ -642,16 +754,19 @@
         <v>14.0</v>
       </c>
       <c r="B15" t="s" s="0">
-        <v>52</v>
+        <v>66</v>
       </c>
       <c r="C15" t="s" s="0">
-        <v>6</v>
+        <v>67</v>
       </c>
       <c r="D15" t="s" s="0">
-        <v>53</v>
+        <v>8</v>
       </c>
       <c r="E15" t="s" s="0">
-        <v>54</v>
+        <v>68</v>
+      </c>
+      <c r="F15" t="s" s="0">
+        <v>69</v>
       </c>
     </row>
     <row r="16">
@@ -659,16 +774,19 @@
         <v>15.0</v>
       </c>
       <c r="B16" t="s" s="0">
-        <v>55</v>
+        <v>70</v>
       </c>
       <c r="C16" t="s" s="0">
-        <v>56</v>
+        <v>71</v>
       </c>
       <c r="D16" t="s" s="0">
-        <v>57</v>
+        <v>72</v>
       </c>
       <c r="E16" t="s" s="0">
-        <v>58</v>
+        <v>73</v>
+      </c>
+      <c r="F16" t="s" s="0">
+        <v>74</v>
       </c>
     </row>
     <row r="17">
@@ -676,16 +794,19 @@
         <v>16.0</v>
       </c>
       <c r="B17" t="s" s="0">
-        <v>59</v>
+        <v>75</v>
       </c>
       <c r="C17" t="s" s="0">
-        <v>60</v>
+        <v>76</v>
       </c>
       <c r="D17" t="s" s="0">
-        <v>61</v>
+        <v>77</v>
       </c>
       <c r="E17" t="s" s="0">
-        <v>62</v>
+        <v>78</v>
+      </c>
+      <c r="F17" t="s" s="0">
+        <v>79</v>
       </c>
     </row>
     <row r="18">
@@ -693,16 +814,19 @@
         <v>17.0</v>
       </c>
       <c r="B18" t="s" s="0">
-        <v>63</v>
+        <v>80</v>
       </c>
       <c r="C18" t="s" s="0">
-        <v>6</v>
+        <v>81</v>
       </c>
       <c r="D18" t="s" s="0">
-        <v>64</v>
+        <v>8</v>
       </c>
       <c r="E18" t="s" s="0">
-        <v>65</v>
+        <v>82</v>
+      </c>
+      <c r="F18" t="s" s="0">
+        <v>83</v>
       </c>
     </row>
     <row r="19">
@@ -710,16 +834,19 @@
         <v>18.0</v>
       </c>
       <c r="B19" t="s" s="0">
-        <v>66</v>
+        <v>84</v>
       </c>
       <c r="C19" t="s" s="0">
-        <v>56</v>
+        <v>85</v>
       </c>
       <c r="D19" t="s" s="0">
-        <v>67</v>
+        <v>72</v>
       </c>
       <c r="E19" t="s" s="0">
-        <v>68</v>
+        <v>86</v>
+      </c>
+      <c r="F19" t="s" s="0">
+        <v>87</v>
       </c>
     </row>
     <row r="20">
@@ -727,16 +854,19 @@
         <v>19.0</v>
       </c>
       <c r="B20" t="s" s="0">
-        <v>69</v>
+        <v>88</v>
       </c>
       <c r="C20" t="s" s="0">
-        <v>6</v>
+        <v>12</v>
       </c>
       <c r="D20" t="s" s="0">
-        <v>70</v>
+        <v>8</v>
       </c>
       <c r="E20" t="s" s="0">
-        <v>71</v>
+        <v>89</v>
+      </c>
+      <c r="F20" t="s" s="0">
+        <v>90</v>
       </c>
     </row>
     <row r="21">
@@ -744,16 +874,19 @@
         <v>20.0</v>
       </c>
       <c r="B21" t="s" s="0">
-        <v>72</v>
+        <v>91</v>
       </c>
       <c r="C21" t="s" s="0">
-        <v>6</v>
+        <v>92</v>
       </c>
       <c r="D21" t="s" s="0">
-        <v>73</v>
+        <v>8</v>
       </c>
       <c r="E21" t="s" s="0">
-        <v>74</v>
+        <v>93</v>
+      </c>
+      <c r="F21" t="s" s="0">
+        <v>94</v>
       </c>
     </row>
     <row r="22">
@@ -761,16 +894,19 @@
         <v>21.0</v>
       </c>
       <c r="B22" t="s" s="0">
-        <v>75</v>
+        <v>95</v>
       </c>
       <c r="C22" t="s" s="0">
-        <v>6</v>
+        <v>96</v>
       </c>
       <c r="D22" t="s" s="0">
-        <v>76</v>
+        <v>8</v>
       </c>
       <c r="E22" t="s" s="0">
-        <v>77</v>
+        <v>97</v>
+      </c>
+      <c r="F22" t="s" s="0">
+        <v>98</v>
       </c>
     </row>
     <row r="23">
@@ -778,16 +914,19 @@
         <v>22.0</v>
       </c>
       <c r="B23" t="s" s="0">
-        <v>78</v>
+        <v>99</v>
       </c>
       <c r="C23" t="s" s="0">
-        <v>60</v>
+        <v>100</v>
       </c>
       <c r="D23" t="s" s="0">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="E23" t="s" s="0">
-        <v>80</v>
+        <v>101</v>
+      </c>
+      <c r="F23" t="s" s="0">
+        <v>102</v>
       </c>
     </row>
     <row r="24">
@@ -795,16 +934,19 @@
         <v>23.0</v>
       </c>
       <c r="B24" t="s" s="0">
-        <v>81</v>
+        <v>103</v>
       </c>
       <c r="C24" t="s" s="0">
-        <v>60</v>
+        <v>104</v>
       </c>
       <c r="D24" t="s" s="0">
-        <v>82</v>
+        <v>77</v>
       </c>
       <c r="E24" t="s" s="0">
-        <v>83</v>
+        <v>105</v>
+      </c>
+      <c r="F24" t="s" s="0">
+        <v>106</v>
       </c>
     </row>
     <row r="25">
@@ -812,16 +954,19 @@
         <v>24.0</v>
       </c>
       <c r="B25" t="s" s="0">
-        <v>84</v>
+        <v>107</v>
       </c>
       <c r="C25" t="s" s="0">
-        <v>6</v>
+        <v>108</v>
       </c>
       <c r="D25" t="s" s="0">
-        <v>85</v>
+        <v>8</v>
       </c>
       <c r="E25" t="s" s="0">
-        <v>86</v>
+        <v>109</v>
+      </c>
+      <c r="F25" t="s" s="0">
+        <v>110</v>
       </c>
     </row>
     <row r="26">
@@ -829,16 +974,19 @@
         <v>25.0</v>
       </c>
       <c r="B26" t="s" s="0">
-        <v>87</v>
+        <v>111</v>
       </c>
       <c r="C26" t="s" s="0">
-        <v>6</v>
+        <v>112</v>
       </c>
       <c r="D26" t="s" s="0">
-        <v>88</v>
+        <v>8</v>
       </c>
       <c r="E26" t="s" s="0">
-        <v>89</v>
+        <v>113</v>
+      </c>
+      <c r="F26" t="s" s="0">
+        <v>114</v>
       </c>
     </row>
     <row r="27">
@@ -846,16 +994,19 @@
         <v>26.0</v>
       </c>
       <c r="B27" t="s" s="0">
-        <v>90</v>
+        <v>115</v>
       </c>
       <c r="C27" t="s" s="0">
-        <v>6</v>
+        <v>116</v>
       </c>
       <c r="D27" t="s" s="0">
-        <v>91</v>
+        <v>8</v>
       </c>
       <c r="E27" t="s" s="0">
-        <v>92</v>
+        <v>117</v>
+      </c>
+      <c r="F27" t="s" s="0">
+        <v>118</v>
       </c>
     </row>
     <row r="28">
@@ -863,16 +1014,19 @@
         <v>27.0</v>
       </c>
       <c r="B28" t="s" s="0">
-        <v>93</v>
+        <v>119</v>
       </c>
       <c r="C28" t="s" s="0">
-        <v>94</v>
+        <v>120</v>
       </c>
       <c r="D28" t="s" s="0">
-        <v>95</v>
+        <v>121</v>
       </c>
       <c r="E28" t="s" s="0">
-        <v>96</v>
+        <v>122</v>
+      </c>
+      <c r="F28" t="s" s="0">
+        <v>123</v>
       </c>
     </row>
     <row r="29">
@@ -880,16 +1034,19 @@
         <v>28.0</v>
       </c>
       <c r="B29" t="s" s="0">
-        <v>97</v>
+        <v>124</v>
       </c>
       <c r="C29" t="s" s="0">
-        <v>94</v>
+        <v>125</v>
       </c>
       <c r="D29" t="s" s="0">
-        <v>98</v>
+        <v>121</v>
       </c>
       <c r="E29" t="s" s="0">
-        <v>99</v>
+        <v>126</v>
+      </c>
+      <c r="F29" t="s" s="0">
+        <v>127</v>
       </c>
     </row>
     <row r="30">
@@ -897,19 +1054,23 @@
         <v>29.0</v>
       </c>
       <c r="B30" t="s" s="0">
-        <v>100</v>
+        <v>128</v>
       </c>
       <c r="C30" t="s" s="0">
-        <v>6</v>
+        <v>129</v>
       </c>
       <c r="D30" t="s" s="0">
-        <v>101</v>
+        <v>8</v>
       </c>
       <c r="E30" t="s" s="0">
-        <v>102</v>
+        <v>130</v>
+      </c>
+      <c r="F30" t="s" s="0">
+        <v>131</v>
       </c>
     </row>
   </sheetData>
+  <autoFilter ref="A1:F1"/>
   <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>
 </file>
--- a/src/main/resources/static/ExcelTemplate/hospitalList.xlsx
+++ b/src/main/resources/static/ExcelTemplate/hospitalList.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="151" uniqueCount="132">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="156" uniqueCount="136">
   <si>
     <t>번호</t>
   </si>
@@ -191,7 +191,7 @@
     <t>초이스병원</t>
   </si>
   <si>
-    <t>성형외과,내과</t>
+    <t>성형외과,정형외과,내과</t>
   </si>
   <si>
     <t>031-216-8275</t>
@@ -411,6 +411,18 @@
   </si>
   <si>
     <t>경기 수원시 팔달구 중부대로 44 건우까사미타워 4층</t>
+  </si>
+  <si>
+    <t>수원아이편한병원</t>
+  </si>
+  <si>
+    <t>소아청소년과</t>
+  </si>
+  <si>
+    <t>031-546-0019</t>
+  </si>
+  <si>
+    <t>경기 수원시 팔달구 권광로 138 선경센트럴파크 4층</t>
   </si>
 </sst>
 </file>
@@ -455,7 +467,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:F30"/>
+  <dimension ref="A1:F31"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="true"/>
   </sheetViews>
@@ -1069,6 +1081,26 @@
         <v>131</v>
       </c>
     </row>
+    <row r="31">
+      <c r="A31" t="n" s="0">
+        <v>30.0</v>
+      </c>
+      <c r="B31" t="s" s="0">
+        <v>132</v>
+      </c>
+      <c r="C31" t="s" s="0">
+        <v>133</v>
+      </c>
+      <c r="D31" t="s" s="0">
+        <v>63</v>
+      </c>
+      <c r="E31" t="s" s="0">
+        <v>134</v>
+      </c>
+      <c r="F31" t="s" s="0">
+        <v>135</v>
+      </c>
+    </row>
   </sheetData>
   <autoFilter ref="A1:F1"/>
   <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
